--- a/DD-Expense & invest/Expense & Fixed Investment June24.xlsx
+++ b/DD-Expense & invest/Expense & Fixed Investment June24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DD-Expense &amp; invest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\DD-Expense &amp; invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ACA98E-67D1-4D72-ACC0-5ADA641760B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67FA776-6FCB-4BC8-8B34-CEBA73036807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense" sheetId="1" r:id="rId1"/>
@@ -1183,13 +1183,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2421,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F1E4BF-8A80-469A-9F6E-DDA4AB43C8B3}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
